--- a/planning/Excels/main.xlsx
+++ b/planning/Excels/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703E0955-D481-4137-9070-6DB7D852585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E939906-CEF1-44DC-AC4E-5BD4C0D1E5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -26,9 +26,38 @@
     <sheet name="ThermoParam" sheetId="24" r:id="rId11"/>
     <sheet name="Ks" sheetId="31" r:id="rId12"/>
     <sheet name="Ki" sheetId="32" r:id="rId13"/>
-    <sheet name="Yield" sheetId="33" r:id="rId14"/>
+    <sheet name="Yield-Mu" sheetId="33" r:id="rId14"/>
     <sheet name="ReactionMatrix" sheetId="21" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Parameters!$B$10</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Parameters!$B$8</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0.000000000135</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,35 +77,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Chiel</author>
     <author>tc={873F5D62-7A36-441D-909B-5D8DF0BCC1F4}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{66D89453-499A-451B-9375-8FEE23DBC4F0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-based on Poot et al (2016)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{873F5D62-7A36-441D-909B-5D8DF0BCC1F4}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{873F5D62-7A36-441D-909B-5D8DF0BCC1F4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,18 +98,8 @@
     <author>Chiel</author>
   </authors>
   <commentList>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{61A8F149-C15A-4E85-ADA2-378708A2716A}">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{68F85584-A9E2-4272-B8DA-6AB5507821AC}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiel:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -113,23 +107,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Equilibrium ratio of CO2(aq)/H2CO3. In literature often given as H2CO3/CO2(aq)</t>
+          <t>Manually adjusted, because not in same order of magnitude as literature</t>
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{0011C65B-9A7D-41B3-8BCE-75001A7243E1}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{77CEE03D-BD8D-4847-9354-6547BABD4652}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiel:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -137,23 +120,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-manually adjusted, because not in same order of magnitude as literature</t>
+          <t>Manually adjust to conform with literature.
+Completely dissociates, thus value of 100 taken.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0" xr:uid="{70458961-4900-45B5-B8A8-96EAE4D2F89C}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{4231ECA3-5849-4B9B-9054-F65A65117C4B}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiel:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -161,33 +134,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-Manually adjust to conform with literature.
-Completely dissociates, thus value of 100 taken.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{177CC48F-EB57-4F75-A08A-B1631E04F45D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chiel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-manually adjusted to be in same order of magnitude as literature
+          <t>Manually adjusted to be in same order of magnitude as literature
 see: https://pubchem.ncbi.nlm.nih.gov/compound/Sulfuric-acid#section=Structures</t>
         </r>
       </text>
@@ -196,26 +143,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={FAFA8C7C-6800-4018-947D-B9F524B630BA}</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    From [Strous1998]</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="278">
   <si>
     <t>AOB/AOA</t>
   </si>
@@ -867,18 +796,6 @@
     <t>eD</t>
   </si>
   <si>
-    <t>AOB</t>
-  </si>
-  <si>
-    <t>NH3</t>
-  </si>
-  <si>
-    <t>NO2</t>
-  </si>
-  <si>
-    <t>AMX</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -888,9 +805,6 @@
     <t>Decay</t>
   </si>
   <si>
-    <t>NO3</t>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -903,9 +817,6 @@
     <t>Na</t>
   </si>
   <si>
-    <t>gN2</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
@@ -915,9 +826,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -975,36 +883,12 @@
     <t>m2/h</t>
   </si>
   <si>
-    <t>Simulation description</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Simulation name</t>
-  </si>
-  <si>
     <t>Neut</t>
   </si>
   <si>
-    <t>[NH3]sp=20mM</t>
-  </si>
-  <si>
-    <t>AOB/NOB system</t>
-  </si>
-  <si>
-    <t>T=20C, pH=7.7</t>
-  </si>
-  <si>
-    <t>[O2]=6mg/L</t>
-  </si>
-  <si>
     <t>kDist</t>
   </si>
   <si>
-    <t>CMX flexibility</t>
-  </si>
-  <si>
     <t>Boundary layer thickness</t>
   </si>
   <si>
@@ -1374,15 +1258,6 @@
     <t>Max growth rate</t>
   </si>
   <si>
-    <t>Yield C/N</t>
-  </si>
-  <si>
-    <t>Add columns with per bacterial species the Ki values per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
-  </si>
-  <si>
-    <t>Add columns with per bacterial species the Ks values per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
-  </si>
-  <si>
     <t>Preferred subspecies</t>
   </si>
   <si>
@@ -1455,9 +1330,6 @@
     <t>CALCULATED: approximated number of bacteria in the starting granule, based on optimal packing of bacteria in circle. Will be slightly lower in reality</t>
   </si>
   <si>
-    <t>Fill in the yields &amp; electron donor molecules for each species. If the maintenance and growth rate are to be set, fill them in as well. If these are to be calculated on the fly, leave blank or fill in 'NA'. The formula for the maintenance and growth rate should manually be added to the calculate_max_growth_rate_and_maint.m script</t>
-  </si>
-  <si>
     <t>CALCULATED Representative volume of the reactor that is modelled in the simulation domain. Calculated using the average expected granule radius and the density of biomass in the reactor and the density per granule</t>
   </si>
   <si>
@@ -1500,9 +1372,6 @@
     <t>Absolute difference between consecutive maximum RES values below which system is considered non-convergent. Default: 1e-10</t>
   </si>
   <si>
-    <t>NOB</t>
-  </si>
-  <si>
     <t>mol/L/h</t>
   </si>
   <si>
@@ -1516,6 +1385,30 @@
   </si>
   <si>
     <t>naive</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Fill in the yields [mol-X/mol-eD] &amp; electron donor molecules for each species. If the maintenance and growth rate are to be set, fill them in as well [1/h]. If these are to be calculated on the fly, leave blank or fill in 'NA'. The formula for the maintenance and growth rate should manually be added to the calculate_max_growth_rate_and_maint.m script</t>
+  </si>
+  <si>
+    <t>Add columns with per bacterial species the Ki values [M] per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
+  </si>
+  <si>
+    <t>Add columns with per bacterial species the Ks values [M] per substrate. Make sure that the compound and bacterium names match the rest of the Excel file</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1424,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1762,13 +1655,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1777,13 +1663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2735,62 +2614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2903,6 +2726,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2910,6 +2770,19 @@
         <color rgb="FFB2B2B2"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
@@ -2922,64 +2795,64 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2989,11 +2862,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3197,149 +3069,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="22" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="48" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="37" fillId="0" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="22" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="40" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="42" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="11" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="37" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="51" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="46" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="50" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="25" fillId="11" borderId="55" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="25" fillId="11" borderId="55" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3353,28 +3196,22 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,210 +3241,129 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="61" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="41" fillId="12" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="65" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="66" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="41" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="68" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="67" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="57" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="69" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="41" fillId="12" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="71" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="37" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="63" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="61" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="62" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="65" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="57" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="37" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="74" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="78" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="82" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="67" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="57" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="70" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="71" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="39" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="73" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="74" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="75" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="66" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="76" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="35" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="41" fillId="12" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="39" fillId="12" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="11" borderId="36" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="36" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="11" borderId="54" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="78" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3647,7 +3403,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3656,25 +3412,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3695,10 +3436,215 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="79" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="52" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="77" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="81" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="82" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="80" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="72" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="65" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="65" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="65" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="39" fillId="12" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="54" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="52" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="11" borderId="35" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="83" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="25" fillId="11" borderId="53" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="84" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="85" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="84" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="43" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="11" borderId="83" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="83" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="65" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="39" fillId="12" borderId="65" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Explanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="10" builtinId="53"/>
     <cellStyle name="Milliers [0]_Nitrification model" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Milliers_Nitrification model" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Monétaire [0]_Nitrification model" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -3706,108 +3652,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Note" xfId="10" builtinId="10"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="54">
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
+        <b val="0"/>
+        <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
@@ -3905,6 +3771,37 @@
         <i/>
         <color theme="0" tint="-0.34998626667073579"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4134,7 +4031,6 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Chiel van Amstel" id="{969302A7-3B3A-4079-852A-4AE1C0564048}" userId="Chiel van Amstel" providerId="None"/>
-  <person displayName="Eloi Martínez-Rabert (PGR)" id="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" userId="S::2424069M@student.gla.ac.uk::cb616271-4a7a-48f5-8972-853218eda004" providerId="AD"/>
 </personList>
 </file>
 
@@ -4465,20 +4361,12 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B4" dT="2021-05-06T16:02:09.77" personId="{5CC223E8-22CF-48C3-ABCE-0A00391E726E}" id="{FAFA8C7C-6800-4018-947D-B9F524B630BA}">
-    <text>From [Strous1998]</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6616838C-F568-417D-8029-DEFF7E533FF8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4488,105 +4376,73 @@
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="225" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="226" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="224" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="219" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="218" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="221" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
-        <v>265</v>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="190" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="187" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="184" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="185" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="186" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="66" priority="6">
-      <formula>$B$2 = FALSE</formula>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="53" priority="6">
+      <formula>#REF! = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",A16)))</formula>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",A8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="Inf">
-      <formula>NOT(ISERROR(SEARCH("Inf",A16)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="Inf">
+      <formula>NOT(ISERROR(SEARCH("Inf",A8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="62" priority="1">
-      <formula>$B$11&lt;&gt;"naive"</formula>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="49" priority="1">
+      <formula>$B$3&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4596,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4614,17 +4470,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="130">
-        <f>Influent!B1</f>
-        <v>2.352941176470588E-3</v>
+        <v>273</v>
+      </c>
+      <c r="B1" s="123">
+        <f>Influent!B1/2</f>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="258" t="s">
-        <v>225</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>210</v>
       </c>
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
@@ -4632,121 +4488,117 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="130">
-        <v>9.9999999999999995E-7</v>
+        <v>274</v>
+      </c>
+      <c r="B2" s="123">
+        <f>Influent!B2/2</f>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="258"/>
+        <v>81</v>
+      </c>
+      <c r="D2" s="213"/>
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="130">
-        <v>9.9999999999999995E-7</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="123">
+        <f>Influent!B3/2</f>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="258"/>
+        <v>81</v>
+      </c>
+      <c r="D3" s="213"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="123">
+        <f>Influent!B4</f>
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="130">
-        <f>Influent!B4</f>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="258"/>
+      <c r="D4" s="213"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="130">
+        <v>76</v>
+      </c>
+      <c r="B5" s="123">
         <f>Influent!B5</f>
-        <v>1E-3</v>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="258"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="213"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="134">
-        <f>B1/2</f>
-        <v>1.176470588235294E-3</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="258"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="123">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="213"/>
       <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="149">
-        <f>B5</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C7" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="258"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="133"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="127">
+        <f>B8/2</f>
+        <v>5.0000000000000002E-11</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="213"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="138">
+        <v>1E-10</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="213"/>
       <c r="E8" s="69"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="144"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="94"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:D7"/>
+    <mergeCell ref="D1:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4757,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4771,777 +4623,770 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="160" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="160" t="s">
+      <c r="A1" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="148" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="148" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" s="161" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="160" t="s">
-        <v>229</v>
-      </c>
-      <c r="F1" s="161" t="s">
-        <v>230</v>
-      </c>
-      <c r="G1" s="161" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="169">
-        <v>-79.37</v>
-      </c>
-      <c r="D2" s="169">
-        <v>-26.57</v>
-      </c>
-      <c r="E2" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="166">
+        <v>273</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="156">
+        <v>10</v>
+      </c>
+      <c r="D2" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="153">
         <v>3</v>
       </c>
-      <c r="H2" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="258" t="s">
-        <v>246</v>
+      <c r="H2" s="149" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="213" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="169">
-        <v>-50.6</v>
-      </c>
-      <c r="D3" s="169">
-        <v>-32.200000000000003</v>
-      </c>
-      <c r="E3" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="167">
+        <v>274</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="156">
+        <v>10</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="154">
         <v>2</v>
       </c>
-      <c r="H3" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="258"/>
+      <c r="H3" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="213"/>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="169">
-        <v>-103.7</v>
-      </c>
-      <c r="D4" s="169">
-        <v>-111.3</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="167">
+        <v>17</v>
+      </c>
+      <c r="B4" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="156">
+        <v>10</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="154">
         <v>2</v>
       </c>
-      <c r="H4" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="258"/>
+      <c r="H4" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="213"/>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="169">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D5" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="167">
+        <v>83</v>
+      </c>
+      <c r="B5" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="156">
+        <v>10</v>
+      </c>
+      <c r="D5" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="154">
         <v>2</v>
       </c>
-      <c r="H5" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="258"/>
+      <c r="H5" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="213"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="159">
+        <v>10</v>
+      </c>
+      <c r="D6" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="226">
+        <v>3</v>
+      </c>
+      <c r="H6" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="169">
-        <f>-386</f>
+      <c r="I6" s="213"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="228">
         <v>-386</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C7" s="228">
         <v>-623.16</v>
       </c>
-      <c r="D6" s="169">
+      <c r="D7" s="228">
         <v>-586.85</v>
       </c>
-      <c r="E6" s="169">
+      <c r="E7" s="228">
         <v>-527.79999999999995</v>
       </c>
-      <c r="F6" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="167">
+      <c r="F7" s="228" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="153">
         <v>3</v>
       </c>
-      <c r="H6" s="163" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="258"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="173" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="173">
+      <c r="H7" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="213"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="159">
         <v>-755.9</v>
       </c>
-      <c r="D7" s="173">
-        <f>-180.69*4.184</f>
+      <c r="D8" s="159">
         <v>-756.00696000000005</v>
       </c>
-      <c r="E7" s="173">
-        <f>-177.97*4.184</f>
+      <c r="E8" s="159">
         <v>-744.62648000000002</v>
       </c>
-      <c r="F7" s="173" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="168">
+      <c r="F8" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="226">
         <v>4</v>
       </c>
-      <c r="H7" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="258"/>
-    </row>
-    <row r="8" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
+      <c r="H8" s="150" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="213"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="160">
+        <v>0</v>
+      </c>
+      <c r="D9" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="160" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="162">
+        <v>2</v>
+      </c>
+      <c r="H9" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="213"/>
+    </row>
+    <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="227" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="228">
+        <v>-237.18</v>
+      </c>
+      <c r="D10" s="228">
+        <v>-157.30000000000001</v>
+      </c>
+      <c r="E10" s="228" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="228" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="153">
+        <v>2</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="213"/>
+    </row>
+    <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="229" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="230">
+        <v>0</v>
+      </c>
+      <c r="D11" s="230" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="230" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="230" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="155">
+        <v>2</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="213"/>
+    </row>
+    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="175" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="175">
-        <v>0</v>
-      </c>
-      <c r="D8" s="175" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="175" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="176" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="195">
-        <v>2</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="258"/>
-    </row>
-    <row r="9" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="108" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="177" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="175">
-        <v>0</v>
-      </c>
-      <c r="D9" s="175" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="175" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="176" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="195">
-        <v>2</v>
-      </c>
-      <c r="H9" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="258"/>
-    </row>
-    <row r="10" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="157" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="174">
-        <v>-237.18</v>
-      </c>
-      <c r="D10" s="174">
-        <v>-157.30000000000001</v>
-      </c>
-      <c r="E10" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="174" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="194">
-        <v>2</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="258"/>
-    </row>
-    <row r="11" spans="1:9" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="158" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="169">
-        <v>0</v>
-      </c>
-      <c r="D11" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="169" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="168">
-        <v>2</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="258"/>
-    </row>
-    <row r="12" spans="1:9" s="71" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="164" t="s">
-        <v>233</v>
-      </c>
-      <c r="C12" s="164" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="165" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="164" t="s">
-        <v>236</v>
+      <c r="B12" s="151" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="151" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>221</v>
       </c>
       <c r="H12" s="72"/>
     </row>
     <row r="13" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="170">
+        <v>273</v>
+      </c>
+      <c r="B13" s="157">
         <f>IF(COUNT(B2,C2)=2, EXP(($C$10+B2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="154">
+      <c r="C13" s="141">
         <f>IF(COUNT(C2,D2)=2, EXP((D2-C2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>3.9083870641861443E-10</v>
-      </c>
-      <c r="D13" s="170">
+        <v>0</v>
+      </c>
+      <c r="D13" s="157">
         <f>IF(COUNT(D2,E2)=2, EXP((E2-D2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="170">
+      <c r="E13" s="157">
         <f>IF(COUNT(E2,F2)=2, EXP((F2-E2)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H13" s="72"/>
-      <c r="I13" s="257" t="s">
-        <v>247</v>
+      <c r="I13" s="212" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="170">
+        <v>274</v>
+      </c>
+      <c r="B14" s="157">
         <f>IF(COUNT(B3,C3)=2, EXP(($C$10+B3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="141">
         <f>IF(COUNT(C3,D3)=2, EXP((D3-C3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>5.2656707191475868E-4</v>
-      </c>
-      <c r="D14" s="170">
+        <v>0</v>
+      </c>
+      <c r="D14" s="157">
         <f>IF(COUNT(D3,E3)=2, EXP((E3-D3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="170">
+      <c r="E14" s="157">
         <f>IF(COUNT(E3,F3)=2, EXP((F3-E3)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="72"/>
-      <c r="I14" s="257"/>
+      <c r="I14" s="212"/>
     </row>
     <row r="15" spans="1:9" s="71" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="170">
+        <v>17</v>
+      </c>
+      <c r="B15" s="157">
         <f>IF(COUNT(B4,C4)=2, EXP(($C$10+B4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="154">
+      <c r="C15" s="141">
         <f>IF(COUNT(C4,D4)=2, EXP((D4-C4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>22.603837077490315</v>
-      </c>
-      <c r="D15" s="170">
+        <v>0</v>
+      </c>
+      <c r="D15" s="157">
         <f>IF(COUNT(D4,E4)=2, EXP((E4-D4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="170">
+      <c r="E15" s="157">
         <f>IF(COUNT(E4,F4)=2, EXP((F4-E4)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="72"/>
-      <c r="I15" s="257"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="170">
+        <v>83</v>
+      </c>
+      <c r="B16" s="157">
         <f>IF(COUNT(B5,C5)=2, EXP(($C$10+B5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="170">
+      <c r="C16" s="157">
         <f>IF(COUNT(C5,D5)=2, EXP((D5-C5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="170">
+      <c r="D16" s="157">
         <f>IF(COUNT(D5,E5)=2, EXP((E5-D5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="170">
+      <c r="E16" s="157">
         <f>IF(COUNT(E5,F5)=2, EXP((F5-E5)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="71"/>
-      <c r="I16" s="257"/>
+      <c r="I16" s="212"/>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="171">
+        <v>76</v>
+      </c>
+      <c r="B17" s="231">
+        <v>0</v>
+      </c>
+      <c r="C17" s="232">
+        <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="232">
+        <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="231">
+        <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="71"/>
+      <c r="I17" s="212"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="238">
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C17" s="154">
-        <f>IF(COUNT(C6,D6)=2, EXP((D6-C6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+      <c r="C18" s="284">
+        <f>IF(COUNT(C7,D7)=2, EXP((D7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D17" s="154">
-        <f>IF(COUNT(D6,E6)=2, EXP((E6-D6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+      <c r="D18" s="284">
+        <f>IF(COUNT(D7,E7)=2, EXP((E7-D7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E17" s="170">
-        <f>IF(COUNT(E6,F6)=2, EXP((F6-E6)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="I17" s="257"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="179">
-        <f>IF(COUNT(B7,C7)=2, EXP(($C$10+B7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="192">
+      <c r="E18" s="285">
+        <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="I18" s="212"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="231">
+        <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="286">
         <v>100</v>
       </c>
-      <c r="D18" s="193">
+      <c r="D19" s="287">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
-      <c r="E18" s="180">
-        <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="257"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="190">
-        <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="191">
-        <f>IF(COUNT(C8,D8)=2, EXP((D8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="191">
-        <f>IF(COUNT(D8,E8)=2, EXP((E8-D8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="191">
+      <c r="E19" s="231">
         <f>IF(COUNT(E8,F8)=2, EXP((F8-E8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="257"/>
+      <c r="I19" s="212"/>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="181">
+      <c r="A20" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="285">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="182">
+      <c r="C20" s="284">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="182">
+      <c r="D20" s="284">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="182">
+      <c r="E20" s="285">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="257"/>
+      <c r="I20" s="212"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="178">
+      <c r="A21" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="288">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="193">
         <f>IF(COUNT(C10,D10)=2, EXP((D10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>5.845648305092005E-15</v>
       </c>
-      <c r="D21" s="178">
+      <c r="D21" s="233">
         <f>IF(COUNT(D10,E10)=2, EXP((E10-D10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="178">
+      <c r="E21" s="233">
         <f>IF(COUNT(E10,F10)=2, EXP((F10-E10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="71"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="257"/>
+      <c r="I21" s="212"/>
     </row>
     <row r="22" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="170">
+      <c r="B22" s="157">
         <f>IF(COUNT(B11,C11)=2, EXP(($C$10+B11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="170">
+      <c r="C22" s="234">
         <f>IF(COUNT(C11,D11)=2, EXP((D11-C11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="170">
+      <c r="D22" s="234">
         <f>IF(COUNT(D11,E11)=2, EXP((E11-D11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="170">
+      <c r="E22" s="231">
         <f>IF(COUNT(E11,F11)=2, EXP((F11-E11)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="71"/>
-      <c r="I22" s="257"/>
+      <c r="I22" s="212"/>
     </row>
     <row r="23" spans="1:9" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="259" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="260"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="261"/>
+      <c r="A23" s="214" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
     </row>
     <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="172">
-        <v>1</v>
-      </c>
-      <c r="D24" s="172">
-        <v>0</v>
-      </c>
-      <c r="E24" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="257" t="s">
-        <v>248</v>
+        <v>273</v>
+      </c>
+      <c r="B24" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="158">
+        <v>0</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="212" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="172">
-        <v>0</v>
-      </c>
-      <c r="D25" s="172">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" s="257"/>
+        <v>274</v>
+      </c>
+      <c r="B25" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="158">
+        <v>0</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="212"/>
     </row>
     <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="172">
-        <v>0</v>
-      </c>
-      <c r="D26" s="172">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="257"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="158">
+        <v>0</v>
+      </c>
+      <c r="D26" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="212"/>
     </row>
     <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="172">
-        <v>0</v>
-      </c>
-      <c r="D27" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="257"/>
+        <v>83</v>
+      </c>
+      <c r="B27" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="158">
+        <v>0</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="212"/>
     </row>
     <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="172">
-        <v>0</v>
-      </c>
-      <c r="C28" s="172">
-        <v>0</v>
-      </c>
-      <c r="D28" s="172">
+        <v>76</v>
+      </c>
+      <c r="B28" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="235">
+        <v>0</v>
+      </c>
+      <c r="D28" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="212"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="236">
+        <v>0</v>
+      </c>
+      <c r="C29" s="236">
+        <v>0</v>
+      </c>
+      <c r="D29" s="236">
         <v>-1</v>
       </c>
-      <c r="E28" s="172">
+      <c r="E29" s="236">
         <v>-2</v>
       </c>
-      <c r="F28" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="257"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="185">
-        <v>0</v>
-      </c>
-      <c r="D29" s="185">
+      <c r="F29" s="236" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="212"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="235">
+        <v>0</v>
+      </c>
+      <c r="D30" s="235">
         <v>-1</v>
       </c>
-      <c r="E29" s="185">
+      <c r="E30" s="235">
         <v>-2</v>
       </c>
-      <c r="F29" s="185" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="257"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="188" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="189">
+      <c r="F30" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="212"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="161">
         <v>1</v>
       </c>
-      <c r="D30" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="257"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="186" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="187">
-        <v>0</v>
-      </c>
-      <c r="D31" s="187" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="187" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="187" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="257"/>
+      <c r="D31" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="161" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="212"/>
     </row>
     <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="157" t="s">
+      <c r="A32" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="236" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="183">
-        <v>0</v>
-      </c>
-      <c r="D32" s="183">
+      <c r="C32" s="236">
+        <v>0</v>
+      </c>
+      <c r="D32" s="236">
         <v>-1</v>
       </c>
-      <c r="E32" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="F32" s="183" t="s">
-        <v>93</v>
-      </c>
-      <c r="I32" s="257"/>
+      <c r="E32" s="236" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="236" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="212"/>
     </row>
     <row r="33" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="172">
+      <c r="B33" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="237">
         <v>1</v>
       </c>
-      <c r="D33" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="172" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" s="257"/>
+      <c r="D33" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="237" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5550,16 +5395,42 @@
     <mergeCell ref="I13:I22"/>
     <mergeCell ref="I24:I33"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:F11 B24:F33 B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="containsText" dxfId="36" priority="54" operator="containsText" text="NA">
+  <conditionalFormatting sqref="B13:E17 B2:F11 C21:D22 B24:F33 C18:D18 E18:E22 B19:B22">
+    <cfRule type="containsText" dxfId="22" priority="60" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:E17 B19:E22 B18 D18:E18">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+  <conditionalFormatting sqref="B13:E17 C21:D22 C18:D18 E18:E22 B19:B22">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D19">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",B18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Inf">
+      <formula>NOT(ISERROR(SEARCH("Inf",B18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18 D19">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D20">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Inf">
+      <formula>NOT(ISERROR(SEARCH("Inf",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5571,94 +5442,105 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C8F689-441D-42D9-88AF-5DCF32002981}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="3" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="153" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="249" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="209" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="154">
-        <v>1.4529411764705884E-6</v>
-      </c>
-      <c r="C2" s="154">
-        <v>0</v>
-      </c>
-      <c r="D2" s="154">
-        <v>3.5937500000000001E-6</v>
-      </c>
-      <c r="E2" s="249"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="B2" s="141">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C2" s="141">
+        <v>0</v>
+      </c>
+      <c r="D2" s="141">
+        <v>0</v>
+      </c>
+      <c r="E2" s="141">
+        <v>0</v>
+      </c>
+      <c r="F2" s="209"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="154">
-        <v>0</v>
-      </c>
-      <c r="C3" s="154">
-        <v>8.8936170212765954E-11</v>
-      </c>
-      <c r="D3" s="154">
-        <v>2.5937500000000004E-6</v>
-      </c>
-      <c r="E3" s="249"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="B3" s="141">
+        <v>0</v>
+      </c>
+      <c r="C3" s="141">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D3" s="141">
+        <v>0</v>
+      </c>
+      <c r="E3" s="141">
+        <v>0</v>
+      </c>
+      <c r="F3" s="209"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="154">
-        <v>4.1176470588235295E-7</v>
-      </c>
-      <c r="C4" s="154">
-        <v>1.6319148936170212E-11</v>
-      </c>
-      <c r="D4" s="154">
-        <v>0</v>
-      </c>
-      <c r="E4" s="249"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="216"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="216"/>
+        <v>272</v>
+      </c>
+      <c r="B4" s="141">
+        <v>0</v>
+      </c>
+      <c r="C4" s="141">
+        <v>0</v>
+      </c>
+      <c r="D4" s="141">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="141">
+        <v>0</v>
+      </c>
+      <c r="F4" s="209"/>
+    </row>
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="181"/>
+    </row>
+    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:F4"/>
   </mergeCells>
-  <phoneticPr fontId="40" type="noConversion"/>
-  <conditionalFormatting sqref="B2:D6">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+  <phoneticPr fontId="38" type="noConversion"/>
+  <conditionalFormatting sqref="B2:E6">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5671,83 +5553,82 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
-      <c r="B1" s="153" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="153" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="153" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="249" t="s">
-        <v>243</v>
+      <c r="B1" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="209" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="154">
-        <v>0</v>
-      </c>
-      <c r="C2" s="154">
-        <v>1.1702127659574469E-5</v>
-      </c>
-      <c r="D2" s="154">
-        <v>0</v>
-      </c>
-      <c r="E2" s="249"/>
+        <v>270</v>
+      </c>
+      <c r="B2" s="141">
+        <v>0</v>
+      </c>
+      <c r="C2" s="141">
+        <v>0</v>
+      </c>
+      <c r="D2" s="141">
+        <v>0</v>
+      </c>
+      <c r="E2" s="209"/>
     </row>
     <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="154">
-        <v>1.3000000000000002E-4</v>
-      </c>
-      <c r="C3" s="154">
-        <v>0</v>
-      </c>
-      <c r="D3" s="154">
-        <v>0</v>
-      </c>
-      <c r="E3" s="249"/>
+        <v>271</v>
+      </c>
+      <c r="B3" s="141">
+        <v>0</v>
+      </c>
+      <c r="C3" s="141">
+        <v>0</v>
+      </c>
+      <c r="D3" s="141">
+        <v>0</v>
+      </c>
+      <c r="E3" s="209"/>
     </row>
     <row r="4" spans="1:5" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="154">
-        <v>0</v>
-      </c>
-      <c r="C4" s="154">
-        <v>0</v>
-      </c>
-      <c r="D4" s="154">
-        <v>3.1250000000000003E-7</v>
-      </c>
-      <c r="E4" s="249"/>
+        <v>272</v>
+      </c>
+      <c r="B4" s="141">
+        <v>0</v>
+      </c>
+      <c r="C4" s="141">
+        <v>0</v>
+      </c>
+      <c r="D4" s="141">
+        <v>0</v>
+      </c>
+      <c r="E4" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5756,11 +5637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765FFA51-252D-42F9-AC75-BD3B676D8AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765FFA51-252D-42F9-AC75-BD3B676D8AD2}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5774,72 +5655,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="153" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="153" t="s">
+      <c r="B1" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="258" t="s">
-        <v>269</v>
+      <c r="D1" s="140" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="213" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="154">
-        <f>0.0415</f>
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="C2" s="155" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="258"/>
+        <v>270</v>
+      </c>
+      <c r="B2" s="141">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="143">
+        <f>0.25/24</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E2" s="143">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F2" s="213"/>
     </row>
     <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="154">
-        <v>2.07E-2</v>
-      </c>
-      <c r="C3" s="155" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="258"/>
+        <v>271</v>
+      </c>
+      <c r="B3" s="141">
+        <v>0.01</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="143">
+        <f>0.25/24</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E3" s="143">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F3" s="213"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="154">
-        <f>0.066</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C4" s="155" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="258"/>
+        <v>272</v>
+      </c>
+      <c r="B4" s="141">
+        <v>0.01</v>
+      </c>
+      <c r="C4" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="143">
+        <f>0.25/24</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="E4" s="143">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5848,10 +5744,10 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5867,369 +5763,369 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="69"/>
-      <c r="B1" s="262" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="263"/>
-      <c r="D1" s="264"/>
-      <c r="E1" s="262" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="263"/>
-      <c r="G1" s="264"/>
-      <c r="H1" s="263" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="263"/>
-      <c r="J1" s="264"/>
+      <c r="B1" s="217" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="218"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="217" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="218"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="218" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="218"/>
+      <c r="J1" s="219"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="69"/>
-      <c r="B2" s="197" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="199" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="197" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="199" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="198" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="199" t="s">
-        <v>79</v>
+      <c r="B2" s="164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="164" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="165" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="165" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="166" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="203">
+        <v>273</v>
+      </c>
+      <c r="B3" s="170">
         <v>-1</v>
       </c>
-      <c r="C3" s="105">
-        <v>-0.9</v>
-      </c>
-      <c r="D3" s="204">
-        <v>0</v>
-      </c>
-      <c r="E3" s="203">
-        <v>0</v>
-      </c>
-      <c r="F3" s="105">
-        <v>0</v>
-      </c>
-      <c r="G3" s="204">
-        <v>0</v>
-      </c>
-      <c r="H3" s="203">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="105">
-        <v>-0.2</v>
-      </c>
-      <c r="J3" s="204">
+      <c r="C3" s="102">
+        <v>0</v>
+      </c>
+      <c r="D3" s="171">
+        <v>0</v>
+      </c>
+      <c r="E3" s="170">
+        <v>0</v>
+      </c>
+      <c r="F3" s="102">
+        <v>0</v>
+      </c>
+      <c r="G3" s="171">
+        <v>0</v>
+      </c>
+      <c r="H3" s="170">
+        <v>0</v>
+      </c>
+      <c r="I3" s="102">
+        <v>0</v>
+      </c>
+      <c r="J3" s="171">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="205">
-        <v>1</v>
-      </c>
-      <c r="C4" s="206">
-        <v>0.7</v>
-      </c>
-      <c r="D4" s="207">
-        <v>0</v>
-      </c>
-      <c r="E4" s="205">
+        <v>274</v>
+      </c>
+      <c r="B4" s="172">
+        <v>0</v>
+      </c>
+      <c r="C4" s="173">
+        <v>0</v>
+      </c>
+      <c r="D4" s="174">
+        <v>0</v>
+      </c>
+      <c r="E4" s="172">
         <v>-1</v>
       </c>
-      <c r="F4" s="206">
-        <v>-2.9</v>
-      </c>
-      <c r="G4" s="207">
-        <v>0</v>
-      </c>
-      <c r="H4" s="205">
-        <v>-1</v>
-      </c>
-      <c r="I4" s="206">
-        <v>-2.1</v>
-      </c>
-      <c r="J4" s="207">
+      <c r="F4" s="173">
+        <v>0</v>
+      </c>
+      <c r="G4" s="174">
+        <v>0</v>
+      </c>
+      <c r="H4" s="172">
+        <v>0</v>
+      </c>
+      <c r="I4" s="173">
+        <v>0</v>
+      </c>
+      <c r="J4" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="205">
-        <v>0</v>
-      </c>
-      <c r="C5" s="206">
-        <v>0</v>
-      </c>
-      <c r="D5" s="207">
-        <v>0</v>
-      </c>
-      <c r="E5" s="205">
-        <v>1</v>
-      </c>
-      <c r="F5" s="206">
-        <v>2.7</v>
-      </c>
-      <c r="G5" s="207">
-        <v>0</v>
-      </c>
-      <c r="H5" s="205">
-        <v>0</v>
-      </c>
-      <c r="I5" s="206">
-        <v>2.1</v>
-      </c>
-      <c r="J5" s="207">
+        <v>17</v>
+      </c>
+      <c r="B5" s="172">
+        <v>0</v>
+      </c>
+      <c r="C5" s="173">
+        <v>0</v>
+      </c>
+      <c r="D5" s="174">
+        <v>0</v>
+      </c>
+      <c r="E5" s="172">
+        <v>0</v>
+      </c>
+      <c r="F5" s="173">
+        <v>0</v>
+      </c>
+      <c r="G5" s="174">
+        <v>0</v>
+      </c>
+      <c r="H5" s="172">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="173">
+        <v>0</v>
+      </c>
+      <c r="J5" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="205">
-        <v>-1.5</v>
-      </c>
-      <c r="C6" s="206">
-        <v>0</v>
-      </c>
-      <c r="D6" s="207">
-        <v>0</v>
-      </c>
-      <c r="E6" s="205">
-        <v>-0.5</v>
-      </c>
-      <c r="F6" s="206">
-        <v>0</v>
-      </c>
-      <c r="G6" s="207">
-        <v>0</v>
-      </c>
-      <c r="H6" s="205">
-        <v>0</v>
-      </c>
-      <c r="I6" s="206">
-        <v>0</v>
-      </c>
-      <c r="J6" s="207">
+        <v>83</v>
+      </c>
+      <c r="B6" s="172">
+        <v>1</v>
+      </c>
+      <c r="C6" s="173">
+        <v>0</v>
+      </c>
+      <c r="D6" s="174">
+        <v>0</v>
+      </c>
+      <c r="E6" s="172">
+        <v>1</v>
+      </c>
+      <c r="F6" s="173">
+        <v>0</v>
+      </c>
+      <c r="G6" s="174">
+        <v>0</v>
+      </c>
+      <c r="H6" s="172">
+        <v>1</v>
+      </c>
+      <c r="I6" s="173">
+        <v>0</v>
+      </c>
+      <c r="J6" s="174">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="205">
-        <v>0</v>
-      </c>
-      <c r="C7" s="206">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="207">
-        <v>1</v>
-      </c>
-      <c r="E7" s="205">
-        <v>0</v>
-      </c>
-      <c r="F7" s="206">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="207">
-        <v>1</v>
-      </c>
-      <c r="H7" s="205">
-        <v>0</v>
-      </c>
-      <c r="I7" s="206">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="207">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="175">
+        <v>0</v>
+      </c>
+      <c r="C7" s="167">
+        <v>0</v>
+      </c>
+      <c r="D7" s="176">
+        <v>0</v>
+      </c>
+      <c r="E7" s="175">
+        <v>0</v>
+      </c>
+      <c r="F7" s="167">
+        <v>0</v>
+      </c>
+      <c r="G7" s="176">
+        <v>0</v>
+      </c>
+      <c r="H7" s="175">
+        <v>0</v>
+      </c>
+      <c r="I7" s="167">
+        <v>0</v>
+      </c>
+      <c r="J7" s="176">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="208">
-        <v>0</v>
-      </c>
-      <c r="C8" s="200">
-        <v>0</v>
-      </c>
-      <c r="D8" s="209">
-        <v>0</v>
-      </c>
-      <c r="E8" s="208">
-        <v>0</v>
-      </c>
-      <c r="F8" s="200">
-        <v>0</v>
-      </c>
-      <c r="G8" s="209">
-        <v>0</v>
-      </c>
-      <c r="H8" s="208">
-        <v>0</v>
-      </c>
-      <c r="I8" s="200">
-        <v>0</v>
-      </c>
-      <c r="J8" s="209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="201">
-        <v>0</v>
-      </c>
-      <c r="C9" s="202">
-        <v>0</v>
-      </c>
-      <c r="D9" s="210">
-        <v>0</v>
-      </c>
-      <c r="E9" s="201">
-        <v>0</v>
-      </c>
-      <c r="F9" s="202">
-        <v>0</v>
-      </c>
-      <c r="G9" s="210">
-        <v>0</v>
-      </c>
-      <c r="H9" s="201">
-        <v>0</v>
-      </c>
-      <c r="I9" s="202">
-        <v>0</v>
-      </c>
-      <c r="J9" s="210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="201">
-        <v>0</v>
-      </c>
-      <c r="C10" s="202">
-        <v>0</v>
-      </c>
-      <c r="D10" s="210">
-        <v>0</v>
-      </c>
-      <c r="E10" s="201">
-        <v>0</v>
-      </c>
-      <c r="F10" s="202">
-        <v>0</v>
-      </c>
-      <c r="G10" s="210">
-        <v>0</v>
-      </c>
-      <c r="H10" s="201">
-        <v>1</v>
-      </c>
-      <c r="I10" s="202">
-        <v>0</v>
-      </c>
-      <c r="J10" s="210">
+      <c r="A8" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="223">
+        <v>0</v>
+      </c>
+      <c r="C8" s="224">
+        <v>0</v>
+      </c>
+      <c r="D8" s="225">
+        <v>0</v>
+      </c>
+      <c r="E8" s="223">
+        <v>0</v>
+      </c>
+      <c r="F8" s="224">
+        <v>0</v>
+      </c>
+      <c r="G8" s="225">
+        <v>0</v>
+      </c>
+      <c r="H8" s="223">
+        <v>0</v>
+      </c>
+      <c r="I8" s="224">
+        <v>0</v>
+      </c>
+      <c r="J8" s="225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="220">
+        <v>0</v>
+      </c>
+      <c r="C9" s="221">
+        <v>0</v>
+      </c>
+      <c r="D9" s="222">
+        <v>0</v>
+      </c>
+      <c r="E9" s="220">
+        <v>0</v>
+      </c>
+      <c r="F9" s="221">
+        <v>0</v>
+      </c>
+      <c r="G9" s="222">
+        <v>0</v>
+      </c>
+      <c r="H9" s="220">
+        <v>0</v>
+      </c>
+      <c r="I9" s="221">
+        <v>0</v>
+      </c>
+      <c r="J9" s="222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="168">
+        <v>0</v>
+      </c>
+      <c r="C10" s="169">
+        <v>0</v>
+      </c>
+      <c r="D10" s="177">
+        <v>0</v>
+      </c>
+      <c r="E10" s="168">
+        <v>0</v>
+      </c>
+      <c r="F10" s="169">
+        <v>0</v>
+      </c>
+      <c r="G10" s="177">
+        <v>0</v>
+      </c>
+      <c r="H10" s="168">
+        <v>0</v>
+      </c>
+      <c r="I10" s="169">
+        <v>0</v>
+      </c>
+      <c r="J10" s="177">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="196" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="211">
-        <v>1</v>
-      </c>
-      <c r="C11" s="102">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11" s="212">
-        <v>0</v>
-      </c>
-      <c r="E11" s="211">
-        <v>0</v>
-      </c>
-      <c r="F11" s="102">
-        <v>0.2</v>
-      </c>
-      <c r="G11" s="212">
-        <v>0</v>
-      </c>
-      <c r="H11" s="211">
-        <v>2</v>
-      </c>
-      <c r="I11" s="102">
-        <v>0.4</v>
-      </c>
-      <c r="J11" s="212">
+      <c r="A11" s="163" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="223">
+        <v>0</v>
+      </c>
+      <c r="C11" s="224">
+        <v>0</v>
+      </c>
+      <c r="D11" s="225">
+        <v>0</v>
+      </c>
+      <c r="E11" s="223">
+        <v>0</v>
+      </c>
+      <c r="F11" s="224">
+        <v>0</v>
+      </c>
+      <c r="G11" s="225">
+        <v>0</v>
+      </c>
+      <c r="H11" s="223">
+        <v>0</v>
+      </c>
+      <c r="I11" s="224">
+        <v>0</v>
+      </c>
+      <c r="J11" s="225">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="100">
-        <v>1</v>
-      </c>
-      <c r="C12" s="213">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="214">
-        <v>0</v>
-      </c>
-      <c r="E12" s="100">
-        <v>0</v>
-      </c>
-      <c r="F12" s="213">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="214">
-        <v>0</v>
-      </c>
-      <c r="H12" s="100">
-        <v>0</v>
-      </c>
-      <c r="I12" s="213">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="214">
+      <c r="B12" s="97">
+        <v>0</v>
+      </c>
+      <c r="C12" s="178">
+        <v>0</v>
+      </c>
+      <c r="D12" s="179">
+        <v>0</v>
+      </c>
+      <c r="E12" s="97">
+        <v>0</v>
+      </c>
+      <c r="F12" s="178">
+        <v>0</v>
+      </c>
+      <c r="G12" s="179">
+        <v>0</v>
+      </c>
+      <c r="H12" s="97">
+        <v>0</v>
+      </c>
+      <c r="I12" s="178">
+        <v>0</v>
+      </c>
+      <c r="J12" s="179">
         <v>0</v>
       </c>
     </row>
@@ -6239,163 +6135,63 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:B12 G10:G12">
-    <cfRule type="cellIs" dxfId="31" priority="94" operator="equal">
+  <conditionalFormatting sqref="B11:J12">
+    <cfRule type="cellIs" dxfId="14" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D12">
-    <cfRule type="cellIs" dxfId="30" priority="73" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="29" priority="56" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B7">
-    <cfRule type="cellIs" dxfId="28" priority="67" operator="equal">
+  <conditionalFormatting sqref="B3:B10">
+    <cfRule type="cellIs" dxfId="13" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="27" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D7">
-    <cfRule type="cellIs" dxfId="26" priority="65" operator="equal">
+  <conditionalFormatting sqref="D4:D10">
+    <cfRule type="cellIs" dxfId="11" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="25" priority="58" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="24" priority="52" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="23" priority="50" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F7 E10:F12">
-    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
+  <conditionalFormatting sqref="E3:F10">
+    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G7">
-    <cfRule type="cellIs" dxfId="20" priority="41" operator="equal">
+  <conditionalFormatting sqref="G4:G10">
+    <cfRule type="cellIs" dxfId="8" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="19" priority="40" operator="equal">
+  <conditionalFormatting sqref="I3:I10">
+    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="17" priority="38" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="16" priority="37" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="15" priority="36" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I7 H10:I12">
-    <cfRule type="cellIs" dxfId="13" priority="34" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12">
-    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H7">
-    <cfRule type="cellIs" dxfId="10" priority="31" operator="equal">
+  <conditionalFormatting sqref="H3:H10">
+    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
+  <conditionalFormatting sqref="J4:J10">
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="7" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="5" priority="25" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C7 C10:C12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:C10">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6450,30 +6246,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="S2" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239" t="s">
+      <c r="S2" s="199" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239" t="s">
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
+      <c r="AF2" s="199"/>
+      <c r="AG2" s="199"/>
+      <c r="AH2" s="199"/>
       <c r="AK2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7926,10 +7722,10 @@
         <f>1/F17</f>
         <v>3.4893748785390075E-2</v>
       </c>
-      <c r="J17" s="240" t="s">
+      <c r="J17" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="243" t="s">
+      <c r="K17" s="203" t="s">
         <v>55</v>
       </c>
       <c r="R17" s="43" t="s">
@@ -8029,8 +7825,8 @@
         <f t="shared" ref="G18:G19" si="9">1/F18</f>
         <v>2.1521507799447302E-2</v>
       </c>
-      <c r="J18" s="241"/>
-      <c r="K18" s="244"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="204"/>
       <c r="R18" s="46" t="s">
         <v>57</v>
       </c>
@@ -8128,8 +7924,8 @@
         <f t="shared" si="9"/>
         <v>5.6574173051404053E-2</v>
       </c>
-      <c r="J19" s="241"/>
-      <c r="K19" s="244"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="204"/>
       <c r="R19" s="46" t="s">
         <v>59</v>
       </c>
@@ -8209,8 +8005,8 @@
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="36"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="244"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="204"/>
       <c r="R20" s="46" t="s">
         <v>60</v>
       </c>
@@ -8291,8 +8087,8 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="59"/>
-      <c r="J21" s="241"/>
-      <c r="K21" s="244"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="204"/>
       <c r="R21" s="46" t="s">
         <v>61</v>
       </c>
@@ -8373,8 +8169,8 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="59"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="244"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="204"/>
       <c r="R22" s="46" t="s">
         <v>62</v>
       </c>
@@ -8455,8 +8251,8 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="59"/>
-      <c r="J23" s="241"/>
-      <c r="K23" s="244"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="204"/>
       <c r="R23" s="48" t="s">
         <v>23</v>
       </c>
@@ -8537,8 +8333,8 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="59"/>
-      <c r="J24" s="241"/>
-      <c r="K24" s="244"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="204"/>
       <c r="V24" s="51" t="s">
         <v>63</v>
       </c>
@@ -8559,8 +8355,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="59"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="244"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="204"/>
     </row>
     <row r="26" spans="2:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
@@ -8569,14 +8365,14 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="59"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="244"/>
-      <c r="N26" s="246" t="s">
+      <c r="J26" s="201"/>
+      <c r="K26" s="204"/>
+      <c r="N26" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="247"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="248"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="208"/>
       <c r="R26" s="52" t="s">
         <v>65</v>
       </c>
@@ -8652,14 +8448,14 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="59"/>
-      <c r="J27" s="241"/>
-      <c r="K27" s="244"/>
-      <c r="N27" s="246" t="s">
+      <c r="J27" s="201"/>
+      <c r="K27" s="204"/>
+      <c r="N27" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="O27" s="247"/>
-      <c r="P27" s="247"/>
-      <c r="Q27" s="248"/>
+      <c r="O27" s="207"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="208"/>
       <c r="R27" s="55" t="s">
         <v>67</v>
       </c>
@@ -8735,8 +8531,8 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="59"/>
-      <c r="J28" s="241"/>
-      <c r="K28" s="244"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="204"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
@@ -8748,24 +8544,24 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="59"/>
-      <c r="J29" s="241"/>
-      <c r="K29" s="244"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="204"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J30" s="241"/>
-      <c r="K30" s="244"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="204"/>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J31" s="241"/>
-      <c r="K31" s="244"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="204"/>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.3">
-      <c r="J32" s="241"/>
-      <c r="K32" s="244"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="204"/>
     </row>
     <row r="33" spans="10:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="242"/>
-      <c r="K33" s="245"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="205"/>
     </row>
     <row r="34" spans="10:26" x14ac:dyDescent="0.3">
       <c r="U34" s="82"/>
@@ -8877,82 +8673,82 @@
     <mergeCell ref="N27:Q27"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:AB7 AD5:AD7 AD9:AD16 S9:AB16">
-    <cfRule type="cellIs" dxfId="61" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:AD23">
-    <cfRule type="cellIs" dxfId="60" priority="19" operator="notBetween">
+    <cfRule type="cellIs" dxfId="47" priority="19" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8:AB8 AD8">
-    <cfRule type="cellIs" dxfId="58" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC5:AC7 AC9:AC16">
-    <cfRule type="cellIs" dxfId="57" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE5:AF7 AE9:AF16 AH9:AI16 AH5:AJ5 AH6:AI7 AJ6:AJ16 AH4">
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:AJ23">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="notBetween">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="notBetween">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="between">
       <formula>0.0000000001</formula>
       <formula>-0.0000000001</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE8:AF8 AH8:AI8">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG5:AG7 AG9:AG16">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4 S4:AB4">
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AF4 AI4">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8966,7 +8762,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8977,16 +8773,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="str">
+      <c r="A1" s="76" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B1" s="99" t="b">
+      <c r="B1" s="266" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="249" t="s">
-        <v>256</v>
+      <c r="C1" s="267" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
@@ -8994,102 +8790,102 @@
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B2" s="99" t="b">
+      <c r="B2" s="96" t="b">
         <f>Parameters!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="249"/>
+      <c r="C2" s="268"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B3" s="99" t="str">
+      <c r="B3" s="96" t="str">
         <f>Bacteria!B6</f>
         <v>granule</v>
       </c>
-      <c r="C3" s="249"/>
+      <c r="C3" s="268"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
         <f>Bacteria!A12</f>
         <v>kDist</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="96">
         <f>Bacteria!B12</f>
-        <v>1.5</v>
-      </c>
-      <c r="C4" s="249"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="268"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
         <f>Bacteria!A13</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B5" s="99" t="b">
+      <c r="B5" s="96" t="b">
         <f>Bacteria!B13</f>
         <v>1</v>
       </c>
-      <c r="C5" s="249"/>
+      <c r="C5" s="268"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B6" s="99" t="b">
+      <c r="B6" s="96" t="b">
         <f>Solver!B4</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="249"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="268"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B7" s="99" t="b">
+      <c r="B7" s="96" t="b">
         <f>Solver!B2</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="249"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="268"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B8" s="99" t="b">
+      <c r="B8" s="269" t="b">
         <f>Solver!B5</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="249"/>
+        <v>0</v>
+      </c>
+      <c r="C8" s="270"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="216"/>
-      <c r="G9" s="215"/>
+      <c r="C9" s="181"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="216"/>
-      <c r="G10" s="215"/>
+      <c r="C10" s="181"/>
+      <c r="G10" s="180"/>
     </row>
     <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="216"/>
-      <c r="G11" s="215"/>
+      <c r="C11" s="181"/>
+      <c r="G11" s="180"/>
     </row>
     <row r="12" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="216"/>
-      <c r="G12" s="215"/>
+      <c r="C12" s="181"/>
+      <c r="G12" s="180"/>
     </row>
     <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="216"/>
+      <c r="C13" s="181"/>
     </row>
     <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="216"/>
+      <c r="C14" s="181"/>
     </row>
     <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="216"/>
+      <c r="C15" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9103,8 +8899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9118,438 +8914,437 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="121">
+        <v>94</v>
+      </c>
+      <c r="B1" s="117">
         <v>257</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="250" t="s">
-        <v>134</v>
+        <v>90</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="210" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="132">
+        <v>95</v>
+      </c>
+      <c r="B2" s="125">
         <v>257</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="250"/>
+        <v>90</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="210"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="99">
+        <v>96</v>
+      </c>
+      <c r="B3" s="96">
         <f>B5*B1*1000000</f>
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="250"/>
+        <v>105</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="210"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="99">
+        <v>97</v>
+      </c>
+      <c r="B4" s="96">
         <f>B6*B2*1000000</f>
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="250"/>
+        <v>105</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="210"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="103">
-        <v>3.9999999999999998E-6</v>
+        <v>98</v>
+      </c>
+      <c r="B5" s="100">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="250"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="210"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="103">
-        <v>3.9999999999999998E-6</v>
+        <v>99</v>
+      </c>
+      <c r="B6" s="100">
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="250"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="210"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="98">
+        <v>100</v>
+      </c>
+      <c r="B7" s="95">
         <f>2*Bacteria!B3</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>125</v>
-      </c>
-      <c r="E7" s="250"/>
+        <v>87</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="210"/>
     </row>
     <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="104">
+        <v>104</v>
+      </c>
+      <c r="B8" s="101">
         <f>5*10^(-6)</f>
         <v>4.9999999999999996E-6</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="251"/>
+        <v>87</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="211"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="105">
-        <v>20000</v>
+        <v>121</v>
+      </c>
+      <c r="B9" s="102">
+        <v>3600</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="252" t="s">
-        <v>135</v>
+        <v>93</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="242" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="102">
+        <v>124</v>
+      </c>
+      <c r="B10" s="99">
         <v>0.5</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="253"/>
+        <v>90</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="210"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="98">
+        <v>127</v>
+      </c>
+      <c r="B11" s="95">
         <f>$B$5^2 * B10 / MAX(Diffusion!$B:$B)</f>
-        <v>1.511715797430083E-6</v>
+        <v>2.6455026455026455E-7</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="210"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="102">
-        <v>0.05</v>
+        <v>135</v>
+      </c>
+      <c r="B12" s="99">
+        <v>0.1</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="210"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="106">
-        <f>24*3</f>
-        <v>72</v>
+        <v>115</v>
+      </c>
+      <c r="B13" s="103">
+        <v>24</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="210"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="100">
+        <v>116</v>
+      </c>
+      <c r="B14" s="97">
         <f>B13*7</f>
-        <v>504</v>
-      </c>
-      <c r="C14" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="254"/>
+        <v>168</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="211"/>
     </row>
     <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="133" t="b">
+      <c r="A15" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="126" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="252" t="s">
-        <v>168</v>
+      <c r="C15" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="242" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" s="102">
+        <v>122</v>
+      </c>
+      <c r="B16" s="99">
         <v>0.01</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="253"/>
+        <v>90</v>
+      </c>
+      <c r="D16" s="107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="210"/>
     </row>
     <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="98">
+        <v>125</v>
+      </c>
+      <c r="B17" s="95">
         <f>$B$5^2 * B16 / MAX(Diffusion!$B:$B)</f>
-        <v>3.0234315948601663E-8</v>
+        <v>5.291005291005291E-9</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="210"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="102">
+        <v>123</v>
+      </c>
+      <c r="B18" s="99">
         <v>0.4</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="114" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="253"/>
+        <v>90</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="210"/>
     </row>
     <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="98">
+        <v>126</v>
+      </c>
+      <c r="B19" s="95">
         <f>$B$5^2 * B18 / MAX(Diffusion!$B:$B)</f>
-        <v>1.2093726379440665E-6</v>
+        <v>2.1164021164021162E-7</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="210"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="102">
-        <v>0.05</v>
+        <v>133</v>
+      </c>
+      <c r="B20" s="99">
+        <v>0.1</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="253"/>
+        <v>93</v>
+      </c>
+      <c r="D20" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="210"/>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="109">
+      <c r="A21" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="106">
         <v>1</v>
       </c>
-      <c r="C21" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" s="253"/>
+      <c r="C21" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="210"/>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="102">
+        <v>141</v>
+      </c>
+      <c r="B22" s="99">
         <v>3</v>
       </c>
-      <c r="C22" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="253"/>
+      <c r="C22" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="210"/>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="102">
+        <v>144</v>
+      </c>
+      <c r="B23" s="99">
         <v>500</v>
       </c>
-      <c r="C23" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="253"/>
+      <c r="C23" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="210"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="102">
+        <v>142</v>
+      </c>
+      <c r="B24" s="99">
         <v>200</v>
       </c>
-      <c r="C24" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="253"/>
+      <c r="C24" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="210"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="102">
+        <v>143</v>
+      </c>
+      <c r="B25" s="99">
         <v>20</v>
       </c>
-      <c r="C25" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="253"/>
+      <c r="C25" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="210"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="237">
+        <v>151</v>
+      </c>
+      <c r="B26" s="197">
         <v>0.2</v>
       </c>
-      <c r="C26" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="116" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="253"/>
+      <c r="C26" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="210"/>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="118">
+        <v>145</v>
+      </c>
+      <c r="B27" s="114">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C27" s="126" t="s">
-        <v>285</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>283</v>
-      </c>
-      <c r="E27" s="253"/>
+      <c r="C27" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="210"/>
     </row>
     <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="119">
+        <v>146</v>
+      </c>
+      <c r="B28" s="115">
         <v>0.02</v>
       </c>
-      <c r="C28" s="123" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="254"/>
+      <c r="C28" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="211"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9558,7 +9353,7 @@
     <mergeCell ref="E15:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="A16:D28">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$B$15 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9577,7 +9372,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9590,63 +9385,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="121">
+      <c r="A1" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="253">
         <v>10</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>178</v>
+      <c r="C1" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="254" t="s">
+        <v>163</v>
       </c>
       <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="121" t="b">
+        <v>157</v>
+      </c>
+      <c r="B2" s="117" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>174</v>
+        <v>90</v>
+      </c>
+      <c r="D2" s="246" t="s">
+        <v>159</v>
       </c>
       <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="120">
-        <f>20/(17*1000)</f>
-        <v>1.176470588235294E-3</v>
+        <v>160</v>
+      </c>
+      <c r="B3" s="116">
+        <f>(1/3)*10^(-3)</f>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>173</v>
+        <v>81</v>
+      </c>
+      <c r="D3" s="246" t="s">
+        <v>158</v>
       </c>
       <c r="E3" s="69"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="108" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="217" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="122" t="s">
-        <v>257</v>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="255" t="s">
+        <v>239</v>
       </c>
       <c r="E4" s="69"/>
     </row>
@@ -9654,122 +9449,121 @@
       <c r="A5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="98">
         <v>20</v>
       </c>
       <c r="C5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="110" t="s">
-        <v>177</v>
+      <c r="D5" s="246" t="s">
+        <v>162</v>
       </c>
       <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="77" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" s="151">
+        <v>223</v>
+      </c>
+      <c r="B6" s="256">
         <f>B5+273.15</f>
         <v>293.14999999999998</v>
       </c>
       <c r="C6" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="110" t="s">
-        <v>237</v>
+      <c r="D6" s="246" t="s">
+        <v>222</v>
       </c>
       <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="152">
-        <v>7.7</v>
+        <v>156</v>
+      </c>
+      <c r="B7" s="257">
+        <v>7</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>179</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="246" t="s">
+        <v>164</v>
       </c>
       <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="127">
+        <v>155</v>
+      </c>
+      <c r="B8" s="258">
         <f>B11/B12 * 4/3 * PI() *B10^3</f>
-        <v>4.7123889803846896E-10</v>
+        <v>1.3962634015954636E-10</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="110" t="s">
-        <v>270</v>
+        <v>91</v>
+      </c>
+      <c r="D8" s="246" t="s">
+        <v>251</v>
       </c>
       <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="97">
+        <v>154</v>
+      </c>
+      <c r="B9" s="259">
         <f>8.3144/1000</f>
         <v>8.3143999999999996E-3</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="110" t="s">
-        <v>169</v>
+        <v>224</v>
+      </c>
+      <c r="D9" s="246" t="s">
+        <v>154</v>
       </c>
       <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="218" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="156">
-        <f>150*10^(-6)</f>
-        <v>1.4999999999999999E-4</v>
+      <c r="A10" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="260">
+        <v>1E-4</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="141" t="s">
-        <v>272</v>
+        <v>87</v>
+      </c>
+      <c r="D10" s="261" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="231">
+        <v>254</v>
+      </c>
+      <c r="B11" s="262">
         <v>100</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>275</v>
+        <v>255</v>
+      </c>
+      <c r="D11" s="263" t="s">
+        <v>256</v>
       </c>
       <c r="E11" s="69"/>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="231">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="264">
         <v>3</v>
       </c>
-      <c r="C12" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>277</v>
+      <c r="C12" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="265" t="s">
+        <v>258</v>
       </c>
       <c r="E12" s="69"/>
     </row>
@@ -9799,10 +9593,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="238">
-        <f>4/3 * PI() *B10^3</f>
-        <v>1.4137166941154065E-11</v>
-      </c>
+      <c r="B17" s="198"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
@@ -9871,12 +9662,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$B$2 = FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$B$2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9893,7 +9684,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -9911,124 +9702,145 @@
     <col min="8" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="120">
-        <f>1.957*10^(-9)*3600*0.7</f>
-        <v>4.9316400000000006E-6</v>
+        <v>273</v>
+      </c>
+      <c r="B1" s="116">
+        <f>1*10^(-9)*3600</f>
+        <v>3.6000000000000003E-6</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="255" t="s">
-        <v>181</v>
+        <v>101</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="240" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="120">
-        <f>1.912*10^(-9)*3600*0.7</f>
-        <v>4.8182400000000001E-6</v>
+        <v>274</v>
+      </c>
+      <c r="B2" s="116">
+        <f>1*10^(-9)*3600</f>
+        <v>3.6000000000000003E-6</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="255"/>
+        <v>101</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="239"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="120">
-        <f>1.902*10^(-9)*3600*0.7</f>
-        <v>4.7930399999999991E-6</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="116">
+        <f>1*10^(-9)*3600</f>
+        <v>3.6000000000000003E-6</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="255"/>
+        <v>101</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="239"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="120">
-        <f>2.1*10^(-9)*3600*0.7</f>
-        <v>5.2920000000000003E-6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" s="116">
+        <f>1*10^(-9)*3600</f>
+        <v>3.6000000000000003E-6</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="255"/>
+        <v>101</v>
+      </c>
+      <c r="D4" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="239"/>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="120">
-        <f>1.92*10^(-9)*3600*0.7</f>
-        <v>4.8384000000000001E-6</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="243">
+        <f>2.1*10^(-9)*3600</f>
+        <v>7.5600000000000005E-6</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="255"/>
+        <v>101</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="239"/>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="120">
-        <f>1.385*10^(-9)*3600*0.7</f>
-        <v>3.4902000000000001E-6</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="255"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="128">
-        <f>1.334*10^(-9)*3600*0.7</f>
-        <v>3.3616800000000002E-6</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="256"/>
+      <c r="A6" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="244">
+        <f>1.92*10^(-9)*3600</f>
+        <v>6.9120000000000001E-6</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="245" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="239"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="116">
+        <f>1.385*10^(-9)*3600</f>
+        <v>4.9860000000000002E-6</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="246" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="239"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="122">
+        <f>1.334*10^(-9)*3600</f>
+        <v>4.8024000000000008E-6</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="247" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E7"/>
+    <mergeCell ref="E1:E8"/>
   </mergeCells>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>#REF! = FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10039,7 +9851,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10053,234 +9865,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="98">
+      <c r="A1" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="271">
         <f>((4/3)*PI()*B3^3)*B4</f>
         <v>2.0943951023931951E-12</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="129" t="s">
-        <v>191</v>
+      <c r="D1" s="272" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="98">
+        <v>169</v>
+      </c>
+      <c r="B2" s="95">
         <f>0.1*B1</f>
         <v>2.0943951023931951E-13</v>
       </c>
       <c r="C2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="129" t="s">
-        <v>192</v>
+      <c r="D2" s="273" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="130">
+        <v>170</v>
+      </c>
+      <c r="B3" s="123">
         <f>(1)*10^(-6)</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>193</v>
+        <v>87</v>
+      </c>
+      <c r="D3" s="273" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="130">
+        <v>171</v>
+      </c>
+      <c r="B4" s="123">
         <f>500*1000</f>
         <v>500000</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>194</v>
+        <v>88</v>
+      </c>
+      <c r="D4" s="273" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="136">
+        <v>172</v>
+      </c>
+      <c r="B5" s="128">
         <v>24.6</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>195</v>
+        <v>89</v>
+      </c>
+      <c r="D5" s="273" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="232" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>278</v>
+      <c r="A6" s="129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="193" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="274" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="130">
-        <f>50*10^(-6)</f>
-        <v>4.9999999999999996E-5</v>
+        <v>174</v>
+      </c>
+      <c r="B7" s="123">
+        <f>10*10^(-6)</f>
+        <v>9.9999999999999991E-6</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>197</v>
+        <v>87</v>
+      </c>
+      <c r="D7" s="273" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="131">
+        <v>249</v>
+      </c>
+      <c r="B8" s="124">
         <f>_xlfn.CEILING.MATH((B7^2 / (0.8*B3 * B12)^2) * 0.75)</f>
-        <v>1303</v>
+        <v>118</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>268</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="273" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="218" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="131">
+      <c r="A9" s="182" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="124">
         <v>12</v>
       </c>
-      <c r="C9" s="233" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="230" t="s">
-        <v>280</v>
+      <c r="C9" s="194" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="275" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="234" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="235">
+      <c r="A10" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="195">
         <v>12</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="135" t="s">
-        <v>282</v>
+      <c r="C10" s="120" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="277" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="131">
+        <v>175</v>
+      </c>
+      <c r="B11" s="124">
         <v>100000</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>198</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="273" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="131">
-        <v>1.5</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="124">
+        <v>1</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>199</v>
+        <v>90</v>
+      </c>
+      <c r="D12" s="273" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="136" t="b">
+        <v>185</v>
+      </c>
+      <c r="B13" s="128" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="129" t="s">
-        <v>201</v>
+        <v>90</v>
+      </c>
+      <c r="D13" s="273" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="138" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="140" t="s">
-        <v>205</v>
+      <c r="A14" s="129" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="274" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B15" s="131">
+        <v>188</v>
+      </c>
+      <c r="B15" s="124">
         <v>5</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="129" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="134">
-        <f>100*10^(-6)</f>
-        <v>9.9999999999999991E-5</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="135" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="D15" s="273" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="278">
+        <f>500*10^(-6)</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="279" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
@@ -10300,22 +10112,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:D15">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>$B$14&lt;&gt;"mechanistic"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:D16">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="27" priority="3">
       <formula>$B$14&lt;&gt;"naive"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:D10">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>OR($B$6 = "granule", $B$6 = "mature granule")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:D8">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>$B$6 ="suspension"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10340,7 +10152,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10350,181 +10162,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="130">
+      <c r="A1" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="280">
         <v>1E-8</v>
       </c>
-      <c r="C1" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="129" t="s">
-        <v>214</v>
+      <c r="C1" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="272" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="131" t="b">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="B2" s="124" t="b">
+        <v>0</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>219</v>
+        <v>90</v>
+      </c>
+      <c r="D2" s="273" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="130">
+        <v>167</v>
+      </c>
+      <c r="B3" s="123">
         <v>1.0000000000000001E-15</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>218</v>
+        <v>90</v>
+      </c>
+      <c r="D3" s="273" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="131" t="b">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="B4" s="124" t="b">
+        <v>0</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>250</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="273" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" s="131" t="b">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="B5" s="124" t="b">
+        <v>0</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>255</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="273" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="130">
+        <v>206</v>
+      </c>
+      <c r="B6" s="123">
         <v>1E-8</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>222</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="273" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="236">
+        <v>192</v>
+      </c>
+      <c r="B7" s="196">
         <v>0.05</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>286</v>
+        <v>265</v>
+      </c>
+      <c r="D7" s="273" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="131" t="s">
-        <v>209</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>194</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>212</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="273" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="131">
+        <v>195</v>
+      </c>
+      <c r="B9" s="124">
         <v>2</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>211</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="273" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="227" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="228" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="229" t="s">
-        <v>224</v>
+      <c r="A10" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="191" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="281" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="131" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="141" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="141" t="s">
-        <v>254</v>
+        <v>234</v>
+      </c>
+      <c r="B11" s="124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="261" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="282" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="283" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D4">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$B$2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:D12">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>$B$11=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10546,10 +10358,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10560,22 +10372,22 @@
     <col min="6" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="130">
-        <f>40/(17*1000)</f>
-        <v>2.352941176470588E-3</v>
+        <v>273</v>
+      </c>
+      <c r="B1" s="123">
+        <f>2*Parameters!B3</f>
+        <v>6.6666666666666664E-4</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="257" t="s">
-        <v>226</v>
+      <c r="E1" s="213" t="s">
+        <v>211</v>
       </c>
       <c r="F1" s="69"/>
       <c r="G1" s="69"/>
@@ -10583,81 +10395,84 @@
       <c r="I1" s="69"/>
       <c r="J1" s="69"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="130">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="B2" s="123">
+        <f>2*Parameters!B3</f>
+        <v>6.6666666666666664E-4</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="257"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="69"/>
       <c r="G2" s="69"/>
       <c r="H2" s="69"/>
       <c r="I2" s="69"/>
       <c r="J2" s="69"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="130">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="123">
+        <f>2*Parameters!B3</f>
+        <v>6.6666666666666664E-4</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="257"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="69"/>
       <c r="G3" s="69"/>
       <c r="H3" s="69"/>
       <c r="I3" s="69"/>
       <c r="J3" s="69"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="123">
+        <f>1E-20</f>
+        <v>9.9999999999999995E-21</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="130">
-        <f>2/(32*1000)</f>
-        <v>6.2500000000000001E-5</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="257"/>
+      <c r="D4" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="213"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="69"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="130">
-        <v>1E-3</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="123">
+        <f>1E-20</f>
+        <v>9.9999999999999995E-21</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="257"/>
+        <v>81</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="213"/>
       <c r="F5" s="94"/>
       <c r="G5" s="69"/>
       <c r="H5" s="69"/>
@@ -10666,73 +10481,84 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="123">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="130">
-        <f>B1/2</f>
-        <v>1.176470588235294E-3</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="E6" s="213"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="130">
-        <f>B5</f>
+        <v>78</v>
+      </c>
+      <c r="B7" s="248">
+        <f>B8/2</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="249" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="213"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="250">
+        <f>B6</f>
         <v>1E-3</v>
       </c>
-      <c r="C7" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="142" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
+      <c r="C8" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="251" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="213"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="252"/>
+      <c r="B9" s="252"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="252"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:E7"/>
+    <mergeCell ref="E1:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/planning/Excels/main.xlsx
+++ b/planning/Excels/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\IbM\planning\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E939906-CEF1-44DC-AC4E-5BD4C0D1E5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA9B15-575C-4149-BBBA-251812EBF2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="808" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="30" r:id="rId1"/>
@@ -1760,7 +1760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -2840,17 +2840,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2865,7 +2854,7 @@
     <xf numFmtId="0" fontId="35" fillId="11" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
@@ -3572,18 +3561,12 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="84" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="85" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3641,6 +3624,16 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="80" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="34" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="36" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3656,27 +3649,6 @@
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
   </cellStyles>
   <dxfs count="54">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -3749,6 +3721,27 @@
         <b val="0"/>
         <i/>
         <color theme="1" tint="0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -4609,8 +4602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5059,15 +5052,15 @@
         <f>1/0.0017</f>
         <v>588.23529411764707</v>
       </c>
-      <c r="C18" s="284">
+      <c r="C18" s="282">
         <f>IF(COUNT(C7,D7)=2, EXP((D7-C7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.3901312221699524E-7</v>
       </c>
-      <c r="D18" s="284">
+      <c r="D18" s="282">
         <f>IF(COUNT(D7,E7)=2, EXP((E7-D7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>3.008575507210982E-11</v>
       </c>
-      <c r="E18" s="285">
+      <c r="E18" s="283">
         <f>IF(COUNT(E7,F7)=2, EXP((F7-E7)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
@@ -5082,10 +5075,10 @@
         <f>IF(COUNT(B8,C8)=2, EXP(($C$10+B8-C8)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="286">
+      <c r="C19" s="284">
         <v>100</v>
       </c>
-      <c r="D19" s="287">
+      <c r="D19" s="285">
         <f>10^(-1.92)</f>
         <v>1.2022644346174125E-2</v>
       </c>
@@ -5100,19 +5093,19 @@
       <c r="A20" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="285">
+      <c r="B20" s="283">
         <f>IF(COUNT(B9,C9)=2, EXP(($C$10+B9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="C20" s="284">
+      <c r="C20" s="282">
         <f>IF(COUNT(C9,D9)=2, EXP((D9-C9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="284">
+      <c r="D20" s="282">
         <f>IF(COUNT(D9,E9)=2, EXP((E9-D9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="285">
+      <c r="E20" s="283">
         <f>IF(COUNT(E9,F9)=2, EXP((F9-E9)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
@@ -5123,7 +5116,7 @@
       <c r="A21" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="288">
+      <c r="B21" s="286">
         <f>IF(COUNT(B10,C10)=2, EXP(($C$10+B10-C10)/-(Parameters!$B$9*Parameters!$B$6)), 0)</f>
         <v>0</v>
       </c>
@@ -5422,15 +5415,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Inf">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Inf">
       <formula>NOT(ISERROR(SEARCH("Inf",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5540,7 +5533,7 @@
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <conditionalFormatting sqref="B2:E6">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5628,7 +5621,7 @@
     <mergeCell ref="E1:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:D4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6136,62 +6129,62 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:J12">
-    <cfRule type="cellIs" dxfId="14" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B10">
-    <cfRule type="cellIs" dxfId="13" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="cellIs" dxfId="11" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F10">
-    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="9" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G10">
-    <cfRule type="cellIs" dxfId="8" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I10">
-    <cfRule type="cellIs" dxfId="7" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H10">
-    <cfRule type="cellIs" dxfId="6" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="cellIs" dxfId="5" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J10">
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8761,8 +8754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC80DB5-92D9-44E1-984F-05E418326CA4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8772,16 +8765,16 @@
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="str">
         <f>Discretization!A15</f>
         <v>Dynamic dT</v>
       </c>
-      <c r="B1" s="266" t="b">
+      <c r="B1" s="287" t="b">
         <f>Discretization!B15</f>
         <v>1</v>
       </c>
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="266" t="s">
         <v>238</v>
       </c>
     </row>
@@ -8790,84 +8783,100 @@
         <f>Parameters!A2</f>
         <v>Variable HRT</v>
       </c>
-      <c r="B2" s="96" t="b">
+      <c r="B2" s="288" t="b">
         <f>Parameters!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="268"/>
+      <c r="C2" s="267"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
         <f>Bacteria!A6</f>
         <v>Initialisation method</v>
       </c>
-      <c r="B3" s="96" t="str">
+      <c r="B3" s="288" t="str">
         <f>Bacteria!B6</f>
         <v>granule</v>
       </c>
-      <c r="C3" s="268"/>
+      <c r="C3" s="267"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
         <f>Bacteria!A12</f>
         <v>kDist</v>
       </c>
-      <c r="B4" s="96">
+      <c r="B4" s="288">
         <f>Bacteria!B12</f>
         <v>1</v>
       </c>
-      <c r="C4" s="268"/>
+      <c r="C4" s="267"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
         <f>Bacteria!A13</f>
         <v>Inactivation enabled</v>
       </c>
-      <c r="B5" s="96" t="b">
+      <c r="B5" s="288" t="b">
         <f>Bacteria!B13</f>
         <v>1</v>
       </c>
-      <c r="C5" s="268"/>
+      <c r="C5" s="267"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
         <f>Solver!A4</f>
         <v>pH bulk concentration corrected</v>
       </c>
-      <c r="B6" s="96" t="b">
+      <c r="B6" s="288" t="b">
         <f>Solver!B4</f>
         <v>0</v>
       </c>
-      <c r="C6" s="268"/>
+      <c r="C6" s="267"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
         <f>Solver!A2</f>
         <v>pH solving included</v>
       </c>
-      <c r="B7" s="96" t="b">
+      <c r="B7" s="288" t="b">
         <f>Solver!B2</f>
         <v>0</v>
       </c>
-      <c r="C7" s="268"/>
+      <c r="C7" s="267"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="str">
         <f>Solver!A5</f>
         <v>Speciation included</v>
       </c>
-      <c r="B8" s="269" t="b">
+      <c r="B8" s="289" t="b">
         <f>Solver!B5</f>
         <v>0</v>
       </c>
-      <c r="C8" s="270"/>
+      <c r="C8" s="267"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="181"/>
+      <c r="A9" s="77" t="str">
+        <f>Solver!A11</f>
+        <v>Structure model</v>
+      </c>
+      <c r="B9" s="288" t="b">
+        <f>Solver!B11</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="267"/>
       <c r="G9" s="180"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="181"/>
+    <row r="10" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="str">
+        <f>Solver!A12</f>
+        <v>Structure model type</v>
+      </c>
+      <c r="B10" s="289" t="str">
+        <f>Solver!B12</f>
+        <v>Neut</v>
+      </c>
+      <c r="C10" s="268"/>
       <c r="G10" s="180"/>
     </row>
     <row r="11" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,15 +8890,16 @@
     <row r="13" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="181"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="181"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="290"/>
       <c r="C15" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:C8"/>
+    <mergeCell ref="C1:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8900,7 +8910,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9868,14 +9878,14 @@
       <c r="A1" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="271">
+      <c r="B1" s="269">
         <f>((4/3)*PI()*B3^3)*B4</f>
         <v>2.0943951023931951E-12</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="272" t="s">
+      <c r="D1" s="270" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9890,7 +9900,7 @@
       <c r="C2" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="273" t="s">
+      <c r="D2" s="271" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9905,7 +9915,7 @@
       <c r="C3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="273" t="s">
+      <c r="D3" s="271" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9920,7 +9930,7 @@
       <c r="C4" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="273" t="s">
+      <c r="D4" s="271" t="s">
         <v>179</v>
       </c>
     </row>
@@ -9934,7 +9944,7 @@
       <c r="C5" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="271" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9948,7 +9958,7 @@
       <c r="C6" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="274" t="s">
+      <c r="D6" s="272" t="s">
         <v>259</v>
       </c>
     </row>
@@ -9963,7 +9973,7 @@
       <c r="C7" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="271" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9978,7 +9988,7 @@
       <c r="C8" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="271" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9992,12 +10002,12 @@
       <c r="C9" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="275" t="s">
+      <c r="D9" s="273" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="276" t="s">
+      <c r="A10" s="274" t="s">
         <v>262</v>
       </c>
       <c r="B10" s="195">
@@ -10006,7 +10016,7 @@
       <c r="C10" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="277" t="s">
+      <c r="D10" s="275" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10020,7 +10030,7 @@
       <c r="C11" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="273" t="s">
+      <c r="D11" s="271" t="s">
         <v>183</v>
       </c>
     </row>
@@ -10034,7 +10044,7 @@
       <c r="C12" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="273" t="s">
+      <c r="D12" s="271" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10048,7 +10058,7 @@
       <c r="C13" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="273" t="s">
+      <c r="D13" s="271" t="s">
         <v>186</v>
       </c>
     </row>
@@ -10062,7 +10072,7 @@
       <c r="C14" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="274" t="s">
+      <c r="D14" s="272" t="s">
         <v>190</v>
       </c>
     </row>
@@ -10076,7 +10086,7 @@
       <c r="C15" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="273" t="s">
+      <c r="D15" s="271" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10084,14 +10094,14 @@
       <c r="A16" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="278">
+      <c r="B16" s="276">
         <f>500*10^(-6)</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="279" t="s">
+      <c r="D16" s="277" t="s">
         <v>181</v>
       </c>
     </row>
@@ -10152,7 +10162,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10165,13 +10175,13 @@
       <c r="A1" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="280">
+      <c r="B1" s="278">
         <v>1E-8</v>
       </c>
       <c r="C1" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="272" t="s">
+      <c r="D1" s="270" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10185,7 +10195,7 @@
       <c r="C2" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="273" t="s">
+      <c r="D2" s="271" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10199,7 +10209,7 @@
       <c r="C3" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="273" t="s">
+      <c r="D3" s="271" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10213,7 +10223,7 @@
       <c r="C4" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="273" t="s">
+      <c r="D4" s="271" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10227,7 +10237,7 @@
       <c r="C5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="273" t="s">
+      <c r="D5" s="271" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10241,7 +10251,7 @@
       <c r="C6" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="273" t="s">
+      <c r="D6" s="271" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10255,7 +10265,7 @@
       <c r="C7" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="273" t="s">
+      <c r="D7" s="271" t="s">
         <v>266</v>
       </c>
     </row>
@@ -10269,7 +10279,7 @@
       <c r="C8" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="273" t="s">
+      <c r="D8" s="271" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10283,7 +10293,7 @@
       <c r="C9" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="273" t="s">
+      <c r="D9" s="271" t="s">
         <v>196</v>
       </c>
     </row>
@@ -10297,7 +10307,7 @@
       <c r="C10" s="192" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="281" t="s">
+      <c r="D10" s="279" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10319,13 +10329,13 @@
       <c r="A12" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="282" t="s">
+      <c r="B12" s="280" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="118" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="283" t="s">
+      <c r="D12" s="281" t="s">
         <v>236</v>
       </c>
     </row>
